--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -2214,7 +2214,7 @@
       </c>
     </row>
     <row r="11"/>
-    <row r="12" ht="18" customHeight="true">
+    <row r="12" ht="16" customHeight="true">
       <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
@@ -2685,7 +2685,7 @@
       </c>
     </row>
     <row r="11"/>
-    <row r="12" ht="18" customHeight="true">
+    <row r="12" ht="16" customHeight="true">
       <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
@@ -3156,7 +3156,7 @@
       </c>
     </row>
     <row r="11"/>
-    <row r="12" ht="18" customHeight="true">
+    <row r="12" ht="16" customHeight="true">
       <c r="B12" s="2" t="s">
         <v>60</v>
       </c>

--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -1856,431 +1856,809 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" ht="18" customHeight="true">
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
     </row>
     <row r="3" ht="16" customHeight="true">
       <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="true">
-      <c r="B4" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47">
-        <v>20</v>
-      </c>
-      <c r="K4" s="47">
-        <v>2</v>
-      </c>
-      <c r="L4" s="47">
-        <v>2</v>
-      </c>
-      <c r="M4" s="47">
-        <v>2</v>
-      </c>
-      <c r="N4" s="47">
-        <v>10</v>
-      </c>
-      <c r="O4" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S4" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" ht="16" customHeight="true">
-      <c r="B5" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="47"/>
+        <v>6</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+    </row>
+    <row r="4"/>
+    <row r="5" ht="18" customHeight="true">
+      <c r="B5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="47" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="47">
-        <v>20</v>
-      </c>
-      <c r="K5" s="47">
-        <v>2</v>
-      </c>
-      <c r="L5" s="47">
-        <v>2</v>
-      </c>
-      <c r="M5" s="47">
-        <v>2</v>
-      </c>
-      <c r="N5" s="47">
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S5" s="47" t="s">
-        <v>68</v>
-      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" ht="16" customHeight="true">
-      <c r="B6" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47">
-        <v>20</v>
-      </c>
-      <c r="K6" s="47">
-        <v>2</v>
-      </c>
-      <c r="L6" s="47">
-        <v>2</v>
-      </c>
-      <c r="M6" s="47">
-        <v>2</v>
-      </c>
-      <c r="N6" s="47">
-        <v>10</v>
-      </c>
-      <c r="O6" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S6" s="47" t="s">
-        <v>68</v>
-      </c>
+      <c r="B6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
     <row r="7" ht="16" customHeight="true">
-      <c r="B7" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="47"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="47" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
-      <c r="J7" s="47">
+      <c r="J7" s="47"/>
+      <c r="K7" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+    </row>
+    <row r="8" ht="16" customHeight="true">
+      <c r="B8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="47">
-        <v>2</v>
-      </c>
-      <c r="L7" s="47">
-        <v>2</v>
-      </c>
-      <c r="M7" s="47">
-        <v>2</v>
-      </c>
-      <c r="N7" s="47">
-        <v>10</v>
-      </c>
-      <c r="O7" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S7" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="true">
-      <c r="B8" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47">
-        <v>20</v>
-      </c>
-      <c r="K8" s="47">
-        <v>2</v>
-      </c>
-      <c r="L8" s="47">
-        <v>2</v>
-      </c>
-      <c r="M8" s="47">
-        <v>2</v>
-      </c>
-      <c r="N8" s="47">
-        <v>10</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R8" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S8" s="47" t="s">
-        <v>68</v>
-      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" ht="16" customHeight="true">
-      <c r="B9" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="47"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="47" t="s">
+        <v>3</v>
+      </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
-      <c r="J9" s="47">
+      <c r="J9" s="47"/>
+      <c r="K9" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+    </row>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12" ht="18" customHeight="true">
+      <c r="B12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="47"/>
+    </row>
+    <row r="13" ht="16" customHeight="true">
+      <c r="B13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" ht="16" customHeight="true">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+    </row>
+    <row r="15" ht="16" customHeight="true">
+      <c r="B15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="47">
-        <v>2</v>
-      </c>
-      <c r="L9" s="47">
-        <v>2</v>
-      </c>
-      <c r="M9" s="47">
-        <v>2</v>
-      </c>
-      <c r="N9" s="47">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" ht="16" customHeight="true">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19" ht="18" customHeight="true">
+      <c r="B19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+    </row>
+    <row r="20" ht="16" customHeight="true">
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" ht="16" customHeight="true">
+      <c r="B21" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47">
+        <v>20</v>
+      </c>
+      <c r="K21" s="47">
+        <v>2</v>
+      </c>
+      <c r="L21" s="47">
+        <v>2</v>
+      </c>
+      <c r="M21" s="47">
+        <v>2</v>
+      </c>
+      <c r="N21" s="47">
         <v>10</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="O21" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="47" t="s">
+      <c r="P21" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="Q9" s="47" t="s">
+      <c r="Q21" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R21" s="47">
         <v>1000</v>
       </c>
-      <c r="S9" s="47" t="s">
+      <c r="S21" s="47" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="true">
-      <c r="B10" s="32" t="s">
+    <row r="22" ht="16" customHeight="true">
+      <c r="B22" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47">
+        <v>20</v>
+      </c>
+      <c r="K22" s="47">
+        <v>2</v>
+      </c>
+      <c r="L22" s="47">
+        <v>2</v>
+      </c>
+      <c r="M22" s="47">
+        <v>2</v>
+      </c>
+      <c r="N22" s="47">
+        <v>10</v>
+      </c>
+      <c r="O22" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S22" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" ht="16" customHeight="true">
+      <c r="B23" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47">
+        <v>20</v>
+      </c>
+      <c r="K23" s="47">
+        <v>2</v>
+      </c>
+      <c r="L23" s="47">
+        <v>2</v>
+      </c>
+      <c r="M23" s="47">
+        <v>2</v>
+      </c>
+      <c r="N23" s="47">
+        <v>10</v>
+      </c>
+      <c r="O23" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="R23" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S23" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" ht="16" customHeight="true">
+      <c r="B24" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47">
+        <v>20</v>
+      </c>
+      <c r="K24" s="47">
+        <v>2</v>
+      </c>
+      <c r="L24" s="47">
+        <v>2</v>
+      </c>
+      <c r="M24" s="47">
+        <v>2</v>
+      </c>
+      <c r="N24" s="47">
+        <v>10</v>
+      </c>
+      <c r="O24" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="R24" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S24" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" ht="16" customHeight="true">
+      <c r="B25" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47">
+        <v>20</v>
+      </c>
+      <c r="K25" s="47">
+        <v>2</v>
+      </c>
+      <c r="L25" s="47">
+        <v>2</v>
+      </c>
+      <c r="M25" s="47">
+        <v>2</v>
+      </c>
+      <c r="N25" s="47">
+        <v>10</v>
+      </c>
+      <c r="O25" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S25" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" ht="16" customHeight="true">
+      <c r="B26" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47">
+        <v>20</v>
+      </c>
+      <c r="K26" s="47">
+        <v>2</v>
+      </c>
+      <c r="L26" s="47">
+        <v>2</v>
+      </c>
+      <c r="M26" s="47">
+        <v>2</v>
+      </c>
+      <c r="N26" s="47">
+        <v>10</v>
+      </c>
+      <c r="O26" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="R26" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S26" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" ht="16" customHeight="true">
+      <c r="B27" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="O27" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P27" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="Q27" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R27" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="S10" s="32" t="s">
+      <c r="S27" s="32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12" ht="16" customHeight="true">
-      <c r="B12" s="2" t="s">
+    <row r="28"/>
+    <row r="29" ht="21" customHeight="true">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31" ht="16" customHeight="true">
+      <c r="B31" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" ht="56" customHeight="true">
-      <c r="B13" s="47" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+    </row>
+    <row r="32" ht="56" customHeight="true">
+      <c r="B32" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="62">
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B12:S12"/>
-    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="B19:S19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B29:S29"/>
+    <mergeCell ref="B31:S31"/>
+    <mergeCell ref="B32:S32"/>
   </mergeCells>
 </worksheet>
 </file>
@@ -2327,431 +2705,809 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" ht="18" customHeight="true">
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
     </row>
     <row r="3" ht="16" customHeight="true">
       <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="true">
-      <c r="B4" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47">
-        <v>20</v>
-      </c>
-      <c r="K4" s="47">
-        <v>2</v>
-      </c>
-      <c r="L4" s="47">
-        <v>2</v>
-      </c>
-      <c r="M4" s="47">
-        <v>2</v>
-      </c>
-      <c r="N4" s="47">
-        <v>10</v>
-      </c>
-      <c r="O4" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S4" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" ht="16" customHeight="true">
-      <c r="B5" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="47"/>
+        <v>6</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+    </row>
+    <row r="4"/>
+    <row r="5" ht="18" customHeight="true">
+      <c r="B5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="47" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="47">
-        <v>20</v>
-      </c>
-      <c r="K5" s="47">
-        <v>2</v>
-      </c>
-      <c r="L5" s="47">
-        <v>2</v>
-      </c>
-      <c r="M5" s="47">
-        <v>2</v>
-      </c>
-      <c r="N5" s="47">
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S5" s="47" t="s">
-        <v>68</v>
-      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" ht="16" customHeight="true">
-      <c r="B6" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47">
-        <v>20</v>
-      </c>
-      <c r="K6" s="47">
-        <v>2</v>
-      </c>
-      <c r="L6" s="47">
-        <v>2</v>
-      </c>
-      <c r="M6" s="47">
-        <v>2</v>
-      </c>
-      <c r="N6" s="47">
-        <v>10</v>
-      </c>
-      <c r="O6" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S6" s="47" t="s">
-        <v>68</v>
-      </c>
+      <c r="B6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
     <row r="7" ht="16" customHeight="true">
-      <c r="B7" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="47"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="47" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
-      <c r="J7" s="47">
+      <c r="J7" s="47"/>
+      <c r="K7" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+    </row>
+    <row r="8" ht="16" customHeight="true">
+      <c r="B8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="47">
-        <v>2</v>
-      </c>
-      <c r="L7" s="47">
-        <v>2</v>
-      </c>
-      <c r="M7" s="47">
-        <v>2</v>
-      </c>
-      <c r="N7" s="47">
-        <v>10</v>
-      </c>
-      <c r="O7" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S7" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="true">
-      <c r="B8" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47">
-        <v>20</v>
-      </c>
-      <c r="K8" s="47">
-        <v>2</v>
-      </c>
-      <c r="L8" s="47">
-        <v>2</v>
-      </c>
-      <c r="M8" s="47">
-        <v>2</v>
-      </c>
-      <c r="N8" s="47">
-        <v>10</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R8" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S8" s="47" t="s">
-        <v>68</v>
-      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" ht="16" customHeight="true">
-      <c r="B9" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="47"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="47" t="s">
+        <v>3</v>
+      </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
-      <c r="J9" s="47">
+      <c r="J9" s="47"/>
+      <c r="K9" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+    </row>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12" ht="18" customHeight="true">
+      <c r="B12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="47"/>
+    </row>
+    <row r="13" ht="16" customHeight="true">
+      <c r="B13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" ht="16" customHeight="true">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+    </row>
+    <row r="15" ht="16" customHeight="true">
+      <c r="B15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="47">
-        <v>2</v>
-      </c>
-      <c r="L9" s="47">
-        <v>2</v>
-      </c>
-      <c r="M9" s="47">
-        <v>2</v>
-      </c>
-      <c r="N9" s="47">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" ht="16" customHeight="true">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19" ht="18" customHeight="true">
+      <c r="B19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+    </row>
+    <row r="20" ht="16" customHeight="true">
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" ht="16" customHeight="true">
+      <c r="B21" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47">
+        <v>20</v>
+      </c>
+      <c r="K21" s="47">
+        <v>2</v>
+      </c>
+      <c r="L21" s="47">
+        <v>2</v>
+      </c>
+      <c r="M21" s="47">
+        <v>2</v>
+      </c>
+      <c r="N21" s="47">
         <v>10</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="O21" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="47" t="s">
+      <c r="P21" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="Q9" s="47" t="s">
+      <c r="Q21" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R21" s="47">
         <v>1000</v>
       </c>
-      <c r="S9" s="47" t="s">
+      <c r="S21" s="47" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="true">
-      <c r="B10" s="32" t="s">
+    <row r="22" ht="16" customHeight="true">
+      <c r="B22" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47">
+        <v>20</v>
+      </c>
+      <c r="K22" s="47">
+        <v>2</v>
+      </c>
+      <c r="L22" s="47">
+        <v>2</v>
+      </c>
+      <c r="M22" s="47">
+        <v>2</v>
+      </c>
+      <c r="N22" s="47">
+        <v>10</v>
+      </c>
+      <c r="O22" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S22" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" ht="16" customHeight="true">
+      <c r="B23" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47">
+        <v>20</v>
+      </c>
+      <c r="K23" s="47">
+        <v>2</v>
+      </c>
+      <c r="L23" s="47">
+        <v>2</v>
+      </c>
+      <c r="M23" s="47">
+        <v>2</v>
+      </c>
+      <c r="N23" s="47">
+        <v>10</v>
+      </c>
+      <c r="O23" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="R23" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S23" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" ht="16" customHeight="true">
+      <c r="B24" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47">
+        <v>20</v>
+      </c>
+      <c r="K24" s="47">
+        <v>2</v>
+      </c>
+      <c r="L24" s="47">
+        <v>2</v>
+      </c>
+      <c r="M24" s="47">
+        <v>2</v>
+      </c>
+      <c r="N24" s="47">
+        <v>10</v>
+      </c>
+      <c r="O24" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="R24" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S24" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" ht="16" customHeight="true">
+      <c r="B25" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47">
+        <v>20</v>
+      </c>
+      <c r="K25" s="47">
+        <v>2</v>
+      </c>
+      <c r="L25" s="47">
+        <v>2</v>
+      </c>
+      <c r="M25" s="47">
+        <v>2</v>
+      </c>
+      <c r="N25" s="47">
+        <v>10</v>
+      </c>
+      <c r="O25" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S25" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" ht="16" customHeight="true">
+      <c r="B26" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47">
+        <v>20</v>
+      </c>
+      <c r="K26" s="47">
+        <v>2</v>
+      </c>
+      <c r="L26" s="47">
+        <v>2</v>
+      </c>
+      <c r="M26" s="47">
+        <v>2</v>
+      </c>
+      <c r="N26" s="47">
+        <v>10</v>
+      </c>
+      <c r="O26" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="R26" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S26" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" ht="16" customHeight="true">
+      <c r="B27" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="O27" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P27" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="Q27" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R27" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="S10" s="32" t="s">
+      <c r="S27" s="32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12" ht="16" customHeight="true">
-      <c r="B12" s="2" t="s">
+    <row r="28"/>
+    <row r="29" ht="21" customHeight="true">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31" ht="16" customHeight="true">
+      <c r="B31" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" ht="56" customHeight="true">
-      <c r="B13" s="47" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+    </row>
+    <row r="32" ht="56" customHeight="true">
+      <c r="B32" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="62">
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B12:S12"/>
-    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="B19:S19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B29:S29"/>
+    <mergeCell ref="B31:S31"/>
+    <mergeCell ref="B32:S32"/>
   </mergeCells>
 </worksheet>
 </file>
@@ -2798,431 +3554,809 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" ht="18" customHeight="true">
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
     </row>
     <row r="3" ht="16" customHeight="true">
       <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="true">
-      <c r="B4" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47">
-        <v>20</v>
-      </c>
-      <c r="K4" s="47">
-        <v>2</v>
-      </c>
-      <c r="L4" s="47">
-        <v>2</v>
-      </c>
-      <c r="M4" s="47">
-        <v>2</v>
-      </c>
-      <c r="N4" s="47">
-        <v>10</v>
-      </c>
-      <c r="O4" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S4" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" ht="16" customHeight="true">
-      <c r="B5" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="47"/>
+        <v>6</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+    </row>
+    <row r="4"/>
+    <row r="5" ht="18" customHeight="true">
+      <c r="B5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="47" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="47">
-        <v>20</v>
-      </c>
-      <c r="K5" s="47">
-        <v>2</v>
-      </c>
-      <c r="L5" s="47">
-        <v>2</v>
-      </c>
-      <c r="M5" s="47">
-        <v>2</v>
-      </c>
-      <c r="N5" s="47">
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S5" s="47" t="s">
-        <v>68</v>
-      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" ht="16" customHeight="true">
-      <c r="B6" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47">
-        <v>20</v>
-      </c>
-      <c r="K6" s="47">
-        <v>2</v>
-      </c>
-      <c r="L6" s="47">
-        <v>2</v>
-      </c>
-      <c r="M6" s="47">
-        <v>2</v>
-      </c>
-      <c r="N6" s="47">
-        <v>10</v>
-      </c>
-      <c r="O6" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S6" s="47" t="s">
-        <v>68</v>
-      </c>
+      <c r="B6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
     <row r="7" ht="16" customHeight="true">
-      <c r="B7" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="47"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="47" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
-      <c r="J7" s="47">
+      <c r="J7" s="47"/>
+      <c r="K7" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+    </row>
+    <row r="8" ht="16" customHeight="true">
+      <c r="B8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="47">
-        <v>2</v>
-      </c>
-      <c r="L7" s="47">
-        <v>2</v>
-      </c>
-      <c r="M7" s="47">
-        <v>2</v>
-      </c>
-      <c r="N7" s="47">
-        <v>10</v>
-      </c>
-      <c r="O7" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S7" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="true">
-      <c r="B8" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47">
-        <v>20</v>
-      </c>
-      <c r="K8" s="47">
-        <v>2</v>
-      </c>
-      <c r="L8" s="47">
-        <v>2</v>
-      </c>
-      <c r="M8" s="47">
-        <v>2</v>
-      </c>
-      <c r="N8" s="47">
-        <v>10</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R8" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S8" s="47" t="s">
-        <v>68</v>
-      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" ht="16" customHeight="true">
-      <c r="B9" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="47"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="47" t="s">
+        <v>3</v>
+      </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
-      <c r="J9" s="47">
+      <c r="J9" s="47"/>
+      <c r="K9" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+    </row>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12" ht="18" customHeight="true">
+      <c r="B12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="47"/>
+    </row>
+    <row r="13" ht="16" customHeight="true">
+      <c r="B13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" ht="16" customHeight="true">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+    </row>
+    <row r="15" ht="16" customHeight="true">
+      <c r="B15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="47">
-        <v>2</v>
-      </c>
-      <c r="L9" s="47">
-        <v>2</v>
-      </c>
-      <c r="M9" s="47">
-        <v>2</v>
-      </c>
-      <c r="N9" s="47">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" ht="16" customHeight="true">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19" ht="18" customHeight="true">
+      <c r="B19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+    </row>
+    <row r="20" ht="16" customHeight="true">
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" ht="16" customHeight="true">
+      <c r="B21" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47">
+        <v>20</v>
+      </c>
+      <c r="K21" s="47">
+        <v>2</v>
+      </c>
+      <c r="L21" s="47">
+        <v>2</v>
+      </c>
+      <c r="M21" s="47">
+        <v>2</v>
+      </c>
+      <c r="N21" s="47">
         <v>10</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="O21" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="47" t="s">
+      <c r="P21" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="Q9" s="47" t="s">
+      <c r="Q21" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R21" s="47">
         <v>1000</v>
       </c>
-      <c r="S9" s="47" t="s">
+      <c r="S21" s="47" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="true">
-      <c r="B10" s="32" t="s">
+    <row r="22" ht="16" customHeight="true">
+      <c r="B22" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47">
+        <v>20</v>
+      </c>
+      <c r="K22" s="47">
+        <v>2</v>
+      </c>
+      <c r="L22" s="47">
+        <v>2</v>
+      </c>
+      <c r="M22" s="47">
+        <v>2</v>
+      </c>
+      <c r="N22" s="47">
+        <v>10</v>
+      </c>
+      <c r="O22" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S22" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" ht="16" customHeight="true">
+      <c r="B23" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47">
+        <v>20</v>
+      </c>
+      <c r="K23" s="47">
+        <v>2</v>
+      </c>
+      <c r="L23" s="47">
+        <v>2</v>
+      </c>
+      <c r="M23" s="47">
+        <v>2</v>
+      </c>
+      <c r="N23" s="47">
+        <v>10</v>
+      </c>
+      <c r="O23" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="R23" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S23" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" ht="16" customHeight="true">
+      <c r="B24" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47">
+        <v>20</v>
+      </c>
+      <c r="K24" s="47">
+        <v>2</v>
+      </c>
+      <c r="L24" s="47">
+        <v>2</v>
+      </c>
+      <c r="M24" s="47">
+        <v>2</v>
+      </c>
+      <c r="N24" s="47">
+        <v>10</v>
+      </c>
+      <c r="O24" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="R24" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S24" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" ht="16" customHeight="true">
+      <c r="B25" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47">
+        <v>20</v>
+      </c>
+      <c r="K25" s="47">
+        <v>2</v>
+      </c>
+      <c r="L25" s="47">
+        <v>2</v>
+      </c>
+      <c r="M25" s="47">
+        <v>2</v>
+      </c>
+      <c r="N25" s="47">
+        <v>10</v>
+      </c>
+      <c r="O25" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S25" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" ht="16" customHeight="true">
+      <c r="B26" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47">
+        <v>20</v>
+      </c>
+      <c r="K26" s="47">
+        <v>2</v>
+      </c>
+      <c r="L26" s="47">
+        <v>2</v>
+      </c>
+      <c r="M26" s="47">
+        <v>2</v>
+      </c>
+      <c r="N26" s="47">
+        <v>10</v>
+      </c>
+      <c r="O26" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="R26" s="47">
+        <v>1000</v>
+      </c>
+      <c r="S26" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" ht="16" customHeight="true">
+      <c r="B27" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="O27" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P27" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="Q27" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R27" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="S10" s="32" t="s">
+      <c r="S27" s="32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12" ht="16" customHeight="true">
-      <c r="B12" s="2" t="s">
+    <row r="28"/>
+    <row r="29" ht="21" customHeight="true">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31" ht="16" customHeight="true">
+      <c r="B31" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" ht="56" customHeight="true">
-      <c r="B13" s="47" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+    </row>
+    <row r="32" ht="56" customHeight="true">
+      <c r="B32" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="62">
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B12:S12"/>
-    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="B19:S19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B29:S29"/>
+    <mergeCell ref="B31:S31"/>
+    <mergeCell ref="B32:S32"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
   <si>
     <t xml:space="preserve">Заявка на организацию транспортно-экспедиционного обслуживания № ${number}</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>Ловушка для мух</t>
-  </si>
-  <si>
-    <t>F 1</t>
   </si>
   <si>
     <t>F 2</t>
@@ -2274,20 +2271,20 @@
       <c r="N21" s="47">
         <v>10</v>
       </c>
-      <c r="O21" s="47" t="s">
+      <c r="O21" s="47">
+        <f>=K21*L21*M21*N21</f>
+      </c>
+      <c r="P21" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P21" s="47" t="s">
+      <c r="Q21" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q21" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R21" s="47">
         <v>1000</v>
       </c>
       <c r="S21" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="true">
@@ -2318,20 +2315,20 @@
       <c r="N22" s="47">
         <v>10</v>
       </c>
-      <c r="O22" s="47" t="s">
+      <c r="O22" s="47">
+        <f>=K22*L22*M22*N22</f>
+      </c>
+      <c r="P22" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="47" t="s">
+      <c r="Q22" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q22" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R22" s="47">
         <v>1000</v>
       </c>
       <c r="S22" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="true">
@@ -2362,20 +2359,20 @@
       <c r="N23" s="47">
         <v>10</v>
       </c>
-      <c r="O23" s="47" t="s">
+      <c r="O23" s="47">
+        <f>=K23*L23*M23*N23</f>
+      </c>
+      <c r="P23" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P23" s="47" t="s">
+      <c r="Q23" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q23" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R23" s="47">
         <v>1000</v>
       </c>
       <c r="S23" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="true">
@@ -2406,20 +2403,20 @@
       <c r="N24" s="47">
         <v>10</v>
       </c>
-      <c r="O24" s="47" t="s">
+      <c r="O24" s="47">
+        <f>=K24*L24*M24*N24</f>
+      </c>
+      <c r="P24" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P24" s="47" t="s">
+      <c r="Q24" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q24" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R24" s="47">
         <v>1000</v>
       </c>
       <c r="S24" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="true">
@@ -2450,20 +2447,20 @@
       <c r="N25" s="47">
         <v>10</v>
       </c>
-      <c r="O25" s="47" t="s">
+      <c r="O25" s="47">
+        <f>=K25*L25*M25*N25</f>
+      </c>
+      <c r="P25" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P25" s="47" t="s">
+      <c r="Q25" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q25" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R25" s="47">
         <v>1000</v>
       </c>
       <c r="S25" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="true">
@@ -2494,25 +2491,25 @@
       <c r="N26" s="47">
         <v>10</v>
       </c>
-      <c r="O26" s="47" t="s">
+      <c r="O26" s="47">
+        <f>=K26*L26*M26*N26</f>
+      </c>
+      <c r="P26" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P26" s="47" t="s">
+      <c r="Q26" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q26" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R26" s="47">
         <v>1000</v>
       </c>
       <c r="S26" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="true">
       <c r="B27" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
@@ -2526,22 +2523,22 @@
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
       <c r="N27" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O27" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="P27" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="Q27" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="Q27" s="32" t="s">
+      <c r="R27" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="R27" s="32" t="s">
+      <c r="S27" s="32" t="s">
         <v>74</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28"/>
@@ -2575,7 +2572,7 @@
     </row>
     <row r="32" ht="56" customHeight="true">
       <c r="B32" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
@@ -2684,7 +2681,7 @@
   <sheetData>
     <row r="1" ht="21" customHeight="true">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3123,20 +3120,20 @@
       <c r="N21" s="47">
         <v>10</v>
       </c>
-      <c r="O21" s="47" t="s">
+      <c r="O21" s="47">
+        <f>=K21*L21*M21*N21</f>
+      </c>
+      <c r="P21" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P21" s="47" t="s">
+      <c r="Q21" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q21" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R21" s="47">
         <v>1000</v>
       </c>
       <c r="S21" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="true">
@@ -3167,20 +3164,20 @@
       <c r="N22" s="47">
         <v>10</v>
       </c>
-      <c r="O22" s="47" t="s">
+      <c r="O22" s="47">
+        <f>=K22*L22*M22*N22</f>
+      </c>
+      <c r="P22" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="47" t="s">
+      <c r="Q22" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q22" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R22" s="47">
         <v>1000</v>
       </c>
       <c r="S22" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="true">
@@ -3211,20 +3208,20 @@
       <c r="N23" s="47">
         <v>10</v>
       </c>
-      <c r="O23" s="47" t="s">
+      <c r="O23" s="47">
+        <f>=K23*L23*M23*N23</f>
+      </c>
+      <c r="P23" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P23" s="47" t="s">
+      <c r="Q23" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q23" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R23" s="47">
         <v>1000</v>
       </c>
       <c r="S23" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="true">
@@ -3255,20 +3252,20 @@
       <c r="N24" s="47">
         <v>10</v>
       </c>
-      <c r="O24" s="47" t="s">
+      <c r="O24" s="47">
+        <f>=K24*L24*M24*N24</f>
+      </c>
+      <c r="P24" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P24" s="47" t="s">
+      <c r="Q24" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q24" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R24" s="47">
         <v>1000</v>
       </c>
       <c r="S24" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="true">
@@ -3299,20 +3296,20 @@
       <c r="N25" s="47">
         <v>10</v>
       </c>
-      <c r="O25" s="47" t="s">
+      <c r="O25" s="47">
+        <f>=K25*L25*M25*N25</f>
+      </c>
+      <c r="P25" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P25" s="47" t="s">
+      <c r="Q25" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q25" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R25" s="47">
         <v>1000</v>
       </c>
       <c r="S25" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="true">
@@ -3343,25 +3340,25 @@
       <c r="N26" s="47">
         <v>10</v>
       </c>
-      <c r="O26" s="47" t="s">
+      <c r="O26" s="47">
+        <f>=K26*L26*M26*N26</f>
+      </c>
+      <c r="P26" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P26" s="47" t="s">
+      <c r="Q26" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q26" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R26" s="47">
         <v>1000</v>
       </c>
       <c r="S26" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="true">
       <c r="B27" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
@@ -3375,22 +3372,22 @@
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
       <c r="N27" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O27" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="P27" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="Q27" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="Q27" s="32" t="s">
+      <c r="R27" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="R27" s="32" t="s">
+      <c r="S27" s="32" t="s">
         <v>74</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28"/>
@@ -3424,7 +3421,7 @@
     </row>
     <row r="32" ht="56" customHeight="true">
       <c r="B32" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
@@ -3533,7 +3530,7 @@
   <sheetData>
     <row r="1" ht="21" customHeight="true">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3972,20 +3969,20 @@
       <c r="N21" s="47">
         <v>10</v>
       </c>
-      <c r="O21" s="47" t="s">
+      <c r="O21" s="47">
+        <f>=K21*L21*M21*N21</f>
+      </c>
+      <c r="P21" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P21" s="47" t="s">
+      <c r="Q21" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q21" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R21" s="47">
         <v>1000</v>
       </c>
       <c r="S21" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="true">
@@ -4016,20 +4013,20 @@
       <c r="N22" s="47">
         <v>10</v>
       </c>
-      <c r="O22" s="47" t="s">
+      <c r="O22" s="47">
+        <f>=K22*L22*M22*N22</f>
+      </c>
+      <c r="P22" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="47" t="s">
+      <c r="Q22" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q22" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R22" s="47">
         <v>1000</v>
       </c>
       <c r="S22" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="true">
@@ -4060,20 +4057,20 @@
       <c r="N23" s="47">
         <v>10</v>
       </c>
-      <c r="O23" s="47" t="s">
+      <c r="O23" s="47">
+        <f>=K23*L23*M23*N23</f>
+      </c>
+      <c r="P23" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P23" s="47" t="s">
+      <c r="Q23" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q23" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R23" s="47">
         <v>1000</v>
       </c>
       <c r="S23" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="true">
@@ -4104,20 +4101,20 @@
       <c r="N24" s="47">
         <v>10</v>
       </c>
-      <c r="O24" s="47" t="s">
+      <c r="O24" s="47">
+        <f>=K24*L24*M24*N24</f>
+      </c>
+      <c r="P24" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P24" s="47" t="s">
+      <c r="Q24" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q24" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R24" s="47">
         <v>1000</v>
       </c>
       <c r="S24" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="true">
@@ -4148,20 +4145,20 @@
       <c r="N25" s="47">
         <v>10</v>
       </c>
-      <c r="O25" s="47" t="s">
+      <c r="O25" s="47">
+        <f>=K25*L25*M25*N25</f>
+      </c>
+      <c r="P25" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P25" s="47" t="s">
+      <c r="Q25" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q25" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R25" s="47">
         <v>1000</v>
       </c>
       <c r="S25" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="true">
@@ -4192,25 +4189,25 @@
       <c r="N26" s="47">
         <v>10</v>
       </c>
-      <c r="O26" s="47" t="s">
+      <c r="O26" s="47">
+        <f>=K26*L26*M26*N26</f>
+      </c>
+      <c r="P26" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="P26" s="47" t="s">
+      <c r="Q26" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="Q26" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="R26" s="47">
         <v>1000</v>
       </c>
       <c r="S26" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="true">
       <c r="B27" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
@@ -4224,22 +4221,22 @@
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
       <c r="N27" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O27" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="P27" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="Q27" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="Q27" s="32" t="s">
+      <c r="R27" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="R27" s="32" t="s">
+      <c r="S27" s="32" t="s">
         <v>74</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28"/>
@@ -4273,7 +4270,7 @@
     </row>
     <row r="32" ht="56" customHeight="true">
       <c r="B32" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>

--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t xml:space="preserve">Заявка на организацию транспортно-экспедиционного обслуживания № ${number}</t>
   </si>
@@ -232,34 +232,7 @@
     <t>Ловушка для мух</t>
   </si>
   <si>
-    <t>F 2</t>
-  </si>
-  <si>
-    <t>F 3</t>
-  </si>
-  <si>
-    <t>F 4</t>
-  </si>
-  <si>
     <t>итого</t>
-  </si>
-  <si>
-    <t>FF 0</t>
-  </si>
-  <si>
-    <t>FF 1</t>
-  </si>
-  <si>
-    <t>FF 2</t>
-  </si>
-  <si>
-    <t>FF 3</t>
-  </si>
-  <si>
-    <t>FF 4</t>
-  </si>
-  <si>
-    <t>FF 5</t>
   </si>
   <si>
     <t xml:space="preserve">SetSheetName предоставляет функцию для установки имени листа по заданным именам старого и нового листа. В заголовке листа допускается не более 31 символа, и эта функция изменяет только имя листа и не обновляет имя листа в формуле или ссылке, связанной с ячейкой. Таким образом, может быть ошибка формулы проблемы или отсутствует ссылка. SetSheetName предоставляет функцию для установки имени листа по заданным именам старого и нового листа. В заголовке листа допускается не более 31 символа, и эта функция изменяет только имя листа и не обновляет имя листа в формуле или ссылке, связанной с ячейкой. Таким образом, может быть ошибка формулы проблемы или отсутствует ссылка. </t>
@@ -1878,33 +1851,33 @@
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
     </row>
     <row r="4"/>
     <row r="5" ht="18" customHeight="true">
@@ -1913,27 +1886,27 @@
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="19" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="19"/>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="47"/>
+      <c r="S5" s="26"/>
     </row>
     <row r="6" ht="16" customHeight="true">
       <c r="B6" s="19" t="s">
@@ -1967,27 +1940,27 @@
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47" t="s">
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
     </row>
     <row r="8" ht="16" customHeight="true">
       <c r="B8" s="19" t="s">
@@ -2021,27 +1994,27 @@
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47" t="s">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
     </row>
     <row r="10"/>
     <row r="11"/>
@@ -2051,27 +2024,27 @@
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
       <c r="P12" s="19" t="s">
         <v>23</v>
       </c>
       <c r="Q12" s="19"/>
-      <c r="R12" s="47" t="s">
+      <c r="R12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="47"/>
+      <c r="S12" s="26"/>
     </row>
     <row r="13" ht="16" customHeight="true">
       <c r="B13" s="19" t="s">
@@ -2105,27 +2078,27 @@
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47" t="s">
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
     </row>
     <row r="15" ht="16" customHeight="true">
       <c r="B15" s="19" t="s">
@@ -2159,27 +2132,27 @@
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47" t="s">
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -2244,301 +2217,301 @@
       </c>
     </row>
     <row r="21" ht="16" customHeight="true">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26">
         <v>20</v>
       </c>
-      <c r="K21" s="47">
-        <v>2</v>
-      </c>
-      <c r="L21" s="47">
-        <v>2</v>
-      </c>
-      <c r="M21" s="47">
-        <v>2</v>
-      </c>
-      <c r="N21" s="47">
+      <c r="K21" s="26">
+        <v>2</v>
+      </c>
+      <c r="L21" s="26">
+        <v>2</v>
+      </c>
+      <c r="M21" s="26">
+        <v>2</v>
+      </c>
+      <c r="N21" s="26">
         <v>10</v>
       </c>
-      <c r="O21" s="47">
+      <c r="O21" s="29">
         <f>=K21*L21*M21*N21</f>
       </c>
-      <c r="P21" s="47" t="s">
+      <c r="P21" s="29">
+        <f>=O21*1000/6*N21</f>
+      </c>
+      <c r="Q21" s="29">
+        <f>=O21*250</f>
+      </c>
+      <c r="R21" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S21" s="29">
+        <f>=N21*J21</f>
+      </c>
+    </row>
+    <row r="22" ht="16" customHeight="true">
+      <c r="B22" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26">
+        <v>20</v>
+      </c>
+      <c r="K22" s="26">
+        <v>2</v>
+      </c>
+      <c r="L22" s="26">
+        <v>2</v>
+      </c>
+      <c r="M22" s="26">
+        <v>2</v>
+      </c>
+      <c r="N22" s="26">
+        <v>10</v>
+      </c>
+      <c r="O22" s="29">
+        <f>=K22*L22*M22*N22</f>
+      </c>
+      <c r="P22" s="29">
+        <f>=O22*1000/6*N22</f>
+      </c>
+      <c r="Q22" s="29">
+        <f>=O22*250</f>
+      </c>
+      <c r="R22" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S22" s="29">
+        <f>=N22*J22</f>
+      </c>
+    </row>
+    <row r="23" ht="16" customHeight="true">
+      <c r="B23" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26">
+        <v>20</v>
+      </c>
+      <c r="K23" s="26">
+        <v>2</v>
+      </c>
+      <c r="L23" s="26">
+        <v>2</v>
+      </c>
+      <c r="M23" s="26">
+        <v>2</v>
+      </c>
+      <c r="N23" s="26">
+        <v>10</v>
+      </c>
+      <c r="O23" s="29">
+        <f>=K23*L23*M23*N23</f>
+      </c>
+      <c r="P23" s="29">
+        <f>=O23*1000/6*N23</f>
+      </c>
+      <c r="Q23" s="29">
+        <f>=O23*250</f>
+      </c>
+      <c r="R23" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S23" s="29">
+        <f>=N23*J23</f>
+      </c>
+    </row>
+    <row r="24" ht="16" customHeight="true">
+      <c r="B24" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26">
+        <v>20</v>
+      </c>
+      <c r="K24" s="26">
+        <v>2</v>
+      </c>
+      <c r="L24" s="26">
+        <v>2</v>
+      </c>
+      <c r="M24" s="26">
+        <v>2</v>
+      </c>
+      <c r="N24" s="26">
+        <v>10</v>
+      </c>
+      <c r="O24" s="29">
+        <f>=K24*L24*M24*N24</f>
+      </c>
+      <c r="P24" s="29">
+        <f>=O24*1000/6*N24</f>
+      </c>
+      <c r="Q24" s="29">
+        <f>=O24*250</f>
+      </c>
+      <c r="R24" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S24" s="29">
+        <f>=N24*J24</f>
+      </c>
+    </row>
+    <row r="25" ht="16" customHeight="true">
+      <c r="B25" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26">
+        <v>20</v>
+      </c>
+      <c r="K25" s="26">
+        <v>2</v>
+      </c>
+      <c r="L25" s="26">
+        <v>2</v>
+      </c>
+      <c r="M25" s="26">
+        <v>2</v>
+      </c>
+      <c r="N25" s="26">
+        <v>10</v>
+      </c>
+      <c r="O25" s="29">
+        <f>=K25*L25*M25*N25</f>
+      </c>
+      <c r="P25" s="29">
+        <f>=O25*1000/6*N25</f>
+      </c>
+      <c r="Q25" s="29">
+        <f>=O25*250</f>
+      </c>
+      <c r="R25" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S25" s="29">
+        <f>=N25*J25</f>
+      </c>
+    </row>
+    <row r="26" ht="16" customHeight="true">
+      <c r="B26" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26">
+        <v>20</v>
+      </c>
+      <c r="K26" s="26">
+        <v>2</v>
+      </c>
+      <c r="L26" s="26">
+        <v>2</v>
+      </c>
+      <c r="M26" s="26">
+        <v>2</v>
+      </c>
+      <c r="N26" s="26">
+        <v>10</v>
+      </c>
+      <c r="O26" s="29">
+        <f>=K26*L26*M26*N26</f>
+      </c>
+      <c r="P26" s="29">
+        <f>=O26*1000/6*N26</f>
+      </c>
+      <c r="Q26" s="29">
+        <f>=O26*250</f>
+      </c>
+      <c r="R26" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S26" s="29">
+        <f>=N26*J26</f>
+      </c>
+    </row>
+    <row r="27" ht="16" customHeight="true">
+      <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Q21" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R21" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S21" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" ht="16" customHeight="true">
-      <c r="B22" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47">
-        <v>20</v>
-      </c>
-      <c r="K22" s="47">
-        <v>2</v>
-      </c>
-      <c r="L22" s="47">
-        <v>2</v>
-      </c>
-      <c r="M22" s="47">
-        <v>2</v>
-      </c>
-      <c r="N22" s="47">
-        <v>10</v>
-      </c>
-      <c r="O22" s="47">
-        <f>=K22*L22*M22*N22</f>
-      </c>
-      <c r="P22" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R22" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S22" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" ht="16" customHeight="true">
-      <c r="B23" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47">
-        <v>20</v>
-      </c>
-      <c r="K23" s="47">
-        <v>2</v>
-      </c>
-      <c r="L23" s="47">
-        <v>2</v>
-      </c>
-      <c r="M23" s="47">
-        <v>2</v>
-      </c>
-      <c r="N23" s="47">
-        <v>10</v>
-      </c>
-      <c r="O23" s="47">
-        <f>=K23*L23*M23*N23</f>
-      </c>
-      <c r="P23" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q23" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R23" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S23" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" ht="16" customHeight="true">
-      <c r="B24" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47">
-        <v>20</v>
-      </c>
-      <c r="K24" s="47">
-        <v>2</v>
-      </c>
-      <c r="L24" s="47">
-        <v>2</v>
-      </c>
-      <c r="M24" s="47">
-        <v>2</v>
-      </c>
-      <c r="N24" s="47">
-        <v>10</v>
-      </c>
-      <c r="O24" s="47">
-        <f>=K24*L24*M24*N24</f>
-      </c>
-      <c r="P24" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q24" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R24" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S24" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" ht="16" customHeight="true">
-      <c r="B25" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47">
-        <v>20</v>
-      </c>
-      <c r="K25" s="47">
-        <v>2</v>
-      </c>
-      <c r="L25" s="47">
-        <v>2</v>
-      </c>
-      <c r="M25" s="47">
-        <v>2</v>
-      </c>
-      <c r="N25" s="47">
-        <v>10</v>
-      </c>
-      <c r="O25" s="47">
-        <f>=K25*L25*M25*N25</f>
-      </c>
-      <c r="P25" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q25" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R25" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S25" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" ht="16" customHeight="true">
-      <c r="B26" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47">
-        <v>20</v>
-      </c>
-      <c r="K26" s="47">
-        <v>2</v>
-      </c>
-      <c r="L26" s="47">
-        <v>2</v>
-      </c>
-      <c r="M26" s="47">
-        <v>2</v>
-      </c>
-      <c r="N26" s="47">
-        <v>10</v>
-      </c>
-      <c r="O26" s="47">
-        <f>=K26*L26*M26*N26</f>
-      </c>
-      <c r="P26" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R26" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S26" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" ht="16" customHeight="true">
-      <c r="B27" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="O27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R27" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>74</v>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="29">
+        <f>=SUM(N21:N26)</f>
+      </c>
+      <c r="O27" s="29">
+        <f>=SUM(O21:O26)</f>
+      </c>
+      <c r="P27" s="29">
+        <f>=IF(AND(SUM(Q21:Q26)&gt;=0,SUM(Q21:Q26)&lt;=0.5),0.5,ROUND(SUM(P21:P26),0))</f>
+      </c>
+      <c r="Q27" s="29">
+        <f>=ROUND(SUM(Q21:Q26),0)</f>
+      </c>
+      <c r="R27" s="29">
+        <f>=SUM(R21:R26)</f>
+      </c>
+      <c r="S27" s="29">
+        <f>=SUM(S21:S26)</f>
       </c>
     </row>
     <row r="28"/>
@@ -2571,26 +2544,26 @@
       <c r="S31" s="19"/>
     </row>
     <row r="32" ht="56" customHeight="true">
-      <c r="B32" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
+      <c r="B32" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="62">
@@ -2681,7 +2654,7 @@
   <sheetData>
     <row r="1" ht="21" customHeight="true">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2727,33 +2700,33 @@
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
     </row>
     <row r="4"/>
     <row r="5" ht="18" customHeight="true">
@@ -2762,27 +2735,27 @@
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="19" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="19"/>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="47"/>
+      <c r="S5" s="26"/>
     </row>
     <row r="6" ht="16" customHeight="true">
       <c r="B6" s="19" t="s">
@@ -2816,27 +2789,27 @@
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47" t="s">
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
     </row>
     <row r="8" ht="16" customHeight="true">
       <c r="B8" s="19" t="s">
@@ -2870,27 +2843,27 @@
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47" t="s">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
     </row>
     <row r="10"/>
     <row r="11"/>
@@ -2900,27 +2873,27 @@
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
       <c r="P12" s="19" t="s">
         <v>23</v>
       </c>
       <c r="Q12" s="19"/>
-      <c r="R12" s="47" t="s">
+      <c r="R12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="47"/>
+      <c r="S12" s="26"/>
     </row>
     <row r="13" ht="16" customHeight="true">
       <c r="B13" s="19" t="s">
@@ -2954,27 +2927,27 @@
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47" t="s">
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
     </row>
     <row r="15" ht="16" customHeight="true">
       <c r="B15" s="19" t="s">
@@ -3008,27 +2981,27 @@
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47" t="s">
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -3093,301 +3066,301 @@
       </c>
     </row>
     <row r="21" ht="16" customHeight="true">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26">
         <v>20</v>
       </c>
-      <c r="K21" s="47">
-        <v>2</v>
-      </c>
-      <c r="L21" s="47">
-        <v>2</v>
-      </c>
-      <c r="M21" s="47">
-        <v>2</v>
-      </c>
-      <c r="N21" s="47">
+      <c r="K21" s="26">
+        <v>2</v>
+      </c>
+      <c r="L21" s="26">
+        <v>2</v>
+      </c>
+      <c r="M21" s="26">
+        <v>2</v>
+      </c>
+      <c r="N21" s="26">
         <v>10</v>
       </c>
-      <c r="O21" s="47">
+      <c r="O21" s="29">
         <f>=K21*L21*M21*N21</f>
       </c>
-      <c r="P21" s="47" t="s">
+      <c r="P21" s="29">
+        <f>=O21*1000/6*N21</f>
+      </c>
+      <c r="Q21" s="29">
+        <f>=O21*250</f>
+      </c>
+      <c r="R21" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S21" s="29">
+        <f>=N21*J21</f>
+      </c>
+    </row>
+    <row r="22" ht="16" customHeight="true">
+      <c r="B22" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26">
+        <v>20</v>
+      </c>
+      <c r="K22" s="26">
+        <v>2</v>
+      </c>
+      <c r="L22" s="26">
+        <v>2</v>
+      </c>
+      <c r="M22" s="26">
+        <v>2</v>
+      </c>
+      <c r="N22" s="26">
+        <v>10</v>
+      </c>
+      <c r="O22" s="29">
+        <f>=K22*L22*M22*N22</f>
+      </c>
+      <c r="P22" s="29">
+        <f>=O22*1000/6*N22</f>
+      </c>
+      <c r="Q22" s="29">
+        <f>=O22*250</f>
+      </c>
+      <c r="R22" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S22" s="29">
+        <f>=N22*J22</f>
+      </c>
+    </row>
+    <row r="23" ht="16" customHeight="true">
+      <c r="B23" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26">
+        <v>20</v>
+      </c>
+      <c r="K23" s="26">
+        <v>2</v>
+      </c>
+      <c r="L23" s="26">
+        <v>2</v>
+      </c>
+      <c r="M23" s="26">
+        <v>2</v>
+      </c>
+      <c r="N23" s="26">
+        <v>10</v>
+      </c>
+      <c r="O23" s="29">
+        <f>=K23*L23*M23*N23</f>
+      </c>
+      <c r="P23" s="29">
+        <f>=O23*1000/6*N23</f>
+      </c>
+      <c r="Q23" s="29">
+        <f>=O23*250</f>
+      </c>
+      <c r="R23" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S23" s="29">
+        <f>=N23*J23</f>
+      </c>
+    </row>
+    <row r="24" ht="16" customHeight="true">
+      <c r="B24" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26">
+        <v>20</v>
+      </c>
+      <c r="K24" s="26">
+        <v>2</v>
+      </c>
+      <c r="L24" s="26">
+        <v>2</v>
+      </c>
+      <c r="M24" s="26">
+        <v>2</v>
+      </c>
+      <c r="N24" s="26">
+        <v>10</v>
+      </c>
+      <c r="O24" s="29">
+        <f>=K24*L24*M24*N24</f>
+      </c>
+      <c r="P24" s="29">
+        <f>=O24*1000/6*N24</f>
+      </c>
+      <c r="Q24" s="29">
+        <f>=O24*250</f>
+      </c>
+      <c r="R24" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S24" s="29">
+        <f>=N24*J24</f>
+      </c>
+    </row>
+    <row r="25" ht="16" customHeight="true">
+      <c r="B25" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26">
+        <v>20</v>
+      </c>
+      <c r="K25" s="26">
+        <v>2</v>
+      </c>
+      <c r="L25" s="26">
+        <v>2</v>
+      </c>
+      <c r="M25" s="26">
+        <v>2</v>
+      </c>
+      <c r="N25" s="26">
+        <v>10</v>
+      </c>
+      <c r="O25" s="29">
+        <f>=K25*L25*M25*N25</f>
+      </c>
+      <c r="P25" s="29">
+        <f>=O25*1000/6*N25</f>
+      </c>
+      <c r="Q25" s="29">
+        <f>=O25*250</f>
+      </c>
+      <c r="R25" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S25" s="29">
+        <f>=N25*J25</f>
+      </c>
+    </row>
+    <row r="26" ht="16" customHeight="true">
+      <c r="B26" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26">
+        <v>20</v>
+      </c>
+      <c r="K26" s="26">
+        <v>2</v>
+      </c>
+      <c r="L26" s="26">
+        <v>2</v>
+      </c>
+      <c r="M26" s="26">
+        <v>2</v>
+      </c>
+      <c r="N26" s="26">
+        <v>10</v>
+      </c>
+      <c r="O26" s="29">
+        <f>=K26*L26*M26*N26</f>
+      </c>
+      <c r="P26" s="29">
+        <f>=O26*1000/6*N26</f>
+      </c>
+      <c r="Q26" s="29">
+        <f>=O26*250</f>
+      </c>
+      <c r="R26" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S26" s="29">
+        <f>=N26*J26</f>
+      </c>
+    </row>
+    <row r="27" ht="16" customHeight="true">
+      <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Q21" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R21" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S21" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" ht="16" customHeight="true">
-      <c r="B22" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47">
-        <v>20</v>
-      </c>
-      <c r="K22" s="47">
-        <v>2</v>
-      </c>
-      <c r="L22" s="47">
-        <v>2</v>
-      </c>
-      <c r="M22" s="47">
-        <v>2</v>
-      </c>
-      <c r="N22" s="47">
-        <v>10</v>
-      </c>
-      <c r="O22" s="47">
-        <f>=K22*L22*M22*N22</f>
-      </c>
-      <c r="P22" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R22" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S22" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" ht="16" customHeight="true">
-      <c r="B23" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47">
-        <v>20</v>
-      </c>
-      <c r="K23" s="47">
-        <v>2</v>
-      </c>
-      <c r="L23" s="47">
-        <v>2</v>
-      </c>
-      <c r="M23" s="47">
-        <v>2</v>
-      </c>
-      <c r="N23" s="47">
-        <v>10</v>
-      </c>
-      <c r="O23" s="47">
-        <f>=K23*L23*M23*N23</f>
-      </c>
-      <c r="P23" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q23" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R23" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S23" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" ht="16" customHeight="true">
-      <c r="B24" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47">
-        <v>20</v>
-      </c>
-      <c r="K24" s="47">
-        <v>2</v>
-      </c>
-      <c r="L24" s="47">
-        <v>2</v>
-      </c>
-      <c r="M24" s="47">
-        <v>2</v>
-      </c>
-      <c r="N24" s="47">
-        <v>10</v>
-      </c>
-      <c r="O24" s="47">
-        <f>=K24*L24*M24*N24</f>
-      </c>
-      <c r="P24" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q24" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R24" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S24" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" ht="16" customHeight="true">
-      <c r="B25" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47">
-        <v>20</v>
-      </c>
-      <c r="K25" s="47">
-        <v>2</v>
-      </c>
-      <c r="L25" s="47">
-        <v>2</v>
-      </c>
-      <c r="M25" s="47">
-        <v>2</v>
-      </c>
-      <c r="N25" s="47">
-        <v>10</v>
-      </c>
-      <c r="O25" s="47">
-        <f>=K25*L25*M25*N25</f>
-      </c>
-      <c r="P25" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q25" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R25" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S25" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" ht="16" customHeight="true">
-      <c r="B26" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47">
-        <v>20</v>
-      </c>
-      <c r="K26" s="47">
-        <v>2</v>
-      </c>
-      <c r="L26" s="47">
-        <v>2</v>
-      </c>
-      <c r="M26" s="47">
-        <v>2</v>
-      </c>
-      <c r="N26" s="47">
-        <v>10</v>
-      </c>
-      <c r="O26" s="47">
-        <f>=K26*L26*M26*N26</f>
-      </c>
-      <c r="P26" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R26" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S26" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" ht="16" customHeight="true">
-      <c r="B27" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="O27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R27" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>74</v>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="29">
+        <f>=SUM(N21:N26)</f>
+      </c>
+      <c r="O27" s="29">
+        <f>=SUM(O21:O26)</f>
+      </c>
+      <c r="P27" s="29">
+        <f>=IF(AND(SUM(Q21:Q26)&gt;=0,SUM(Q21:Q26)&lt;=0.5),0.5,ROUND(SUM(P21:P26),0))</f>
+      </c>
+      <c r="Q27" s="29">
+        <f>=ROUND(SUM(Q21:Q26),0)</f>
+      </c>
+      <c r="R27" s="29">
+        <f>=SUM(R21:R26)</f>
+      </c>
+      <c r="S27" s="29">
+        <f>=SUM(S21:S26)</f>
       </c>
     </row>
     <row r="28"/>
@@ -3420,26 +3393,26 @@
       <c r="S31" s="19"/>
     </row>
     <row r="32" ht="56" customHeight="true">
-      <c r="B32" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
+      <c r="B32" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="62">
@@ -3530,7 +3503,7 @@
   <sheetData>
     <row r="1" ht="21" customHeight="true">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3576,33 +3549,33 @@
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
     </row>
     <row r="4"/>
     <row r="5" ht="18" customHeight="true">
@@ -3611,27 +3584,27 @@
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="19" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="19"/>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="47"/>
+      <c r="S5" s="26"/>
     </row>
     <row r="6" ht="16" customHeight="true">
       <c r="B6" s="19" t="s">
@@ -3665,27 +3638,27 @@
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47" t="s">
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
     </row>
     <row r="8" ht="16" customHeight="true">
       <c r="B8" s="19" t="s">
@@ -3719,27 +3692,27 @@
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47" t="s">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
     </row>
     <row r="10"/>
     <row r="11"/>
@@ -3749,27 +3722,27 @@
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
       <c r="P12" s="19" t="s">
         <v>23</v>
       </c>
       <c r="Q12" s="19"/>
-      <c r="R12" s="47" t="s">
+      <c r="R12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="47"/>
+      <c r="S12" s="26"/>
     </row>
     <row r="13" ht="16" customHeight="true">
       <c r="B13" s="19" t="s">
@@ -3803,27 +3776,27 @@
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47" t="s">
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
     </row>
     <row r="15" ht="16" customHeight="true">
       <c r="B15" s="19" t="s">
@@ -3857,27 +3830,27 @@
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47" t="s">
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -3942,301 +3915,301 @@
       </c>
     </row>
     <row r="21" ht="16" customHeight="true">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26">
         <v>20</v>
       </c>
-      <c r="K21" s="47">
-        <v>2</v>
-      </c>
-      <c r="L21" s="47">
-        <v>2</v>
-      </c>
-      <c r="M21" s="47">
-        <v>2</v>
-      </c>
-      <c r="N21" s="47">
+      <c r="K21" s="26">
+        <v>2</v>
+      </c>
+      <c r="L21" s="26">
+        <v>2</v>
+      </c>
+      <c r="M21" s="26">
+        <v>2</v>
+      </c>
+      <c r="N21" s="26">
         <v>10</v>
       </c>
-      <c r="O21" s="47">
+      <c r="O21" s="29">
         <f>=K21*L21*M21*N21</f>
       </c>
-      <c r="P21" s="47" t="s">
+      <c r="P21" s="29">
+        <f>=O21*1000/6*N21</f>
+      </c>
+      <c r="Q21" s="29">
+        <f>=O21*250</f>
+      </c>
+      <c r="R21" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S21" s="29">
+        <f>=N21*J21</f>
+      </c>
+    </row>
+    <row r="22" ht="16" customHeight="true">
+      <c r="B22" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26">
+        <v>20</v>
+      </c>
+      <c r="K22" s="26">
+        <v>2</v>
+      </c>
+      <c r="L22" s="26">
+        <v>2</v>
+      </c>
+      <c r="M22" s="26">
+        <v>2</v>
+      </c>
+      <c r="N22" s="26">
+        <v>10</v>
+      </c>
+      <c r="O22" s="29">
+        <f>=K22*L22*M22*N22</f>
+      </c>
+      <c r="P22" s="29">
+        <f>=O22*1000/6*N22</f>
+      </c>
+      <c r="Q22" s="29">
+        <f>=O22*250</f>
+      </c>
+      <c r="R22" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S22" s="29">
+        <f>=N22*J22</f>
+      </c>
+    </row>
+    <row r="23" ht="16" customHeight="true">
+      <c r="B23" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26">
+        <v>20</v>
+      </c>
+      <c r="K23" s="26">
+        <v>2</v>
+      </c>
+      <c r="L23" s="26">
+        <v>2</v>
+      </c>
+      <c r="M23" s="26">
+        <v>2</v>
+      </c>
+      <c r="N23" s="26">
+        <v>10</v>
+      </c>
+      <c r="O23" s="29">
+        <f>=K23*L23*M23*N23</f>
+      </c>
+      <c r="P23" s="29">
+        <f>=O23*1000/6*N23</f>
+      </c>
+      <c r="Q23" s="29">
+        <f>=O23*250</f>
+      </c>
+      <c r="R23" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S23" s="29">
+        <f>=N23*J23</f>
+      </c>
+    </row>
+    <row r="24" ht="16" customHeight="true">
+      <c r="B24" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26">
+        <v>20</v>
+      </c>
+      <c r="K24" s="26">
+        <v>2</v>
+      </c>
+      <c r="L24" s="26">
+        <v>2</v>
+      </c>
+      <c r="M24" s="26">
+        <v>2</v>
+      </c>
+      <c r="N24" s="26">
+        <v>10</v>
+      </c>
+      <c r="O24" s="29">
+        <f>=K24*L24*M24*N24</f>
+      </c>
+      <c r="P24" s="29">
+        <f>=O24*1000/6*N24</f>
+      </c>
+      <c r="Q24" s="29">
+        <f>=O24*250</f>
+      </c>
+      <c r="R24" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S24" s="29">
+        <f>=N24*J24</f>
+      </c>
+    </row>
+    <row r="25" ht="16" customHeight="true">
+      <c r="B25" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26">
+        <v>20</v>
+      </c>
+      <c r="K25" s="26">
+        <v>2</v>
+      </c>
+      <c r="L25" s="26">
+        <v>2</v>
+      </c>
+      <c r="M25" s="26">
+        <v>2</v>
+      </c>
+      <c r="N25" s="26">
+        <v>10</v>
+      </c>
+      <c r="O25" s="29">
+        <f>=K25*L25*M25*N25</f>
+      </c>
+      <c r="P25" s="29">
+        <f>=O25*1000/6*N25</f>
+      </c>
+      <c r="Q25" s="29">
+        <f>=O25*250</f>
+      </c>
+      <c r="R25" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S25" s="29">
+        <f>=N25*J25</f>
+      </c>
+    </row>
+    <row r="26" ht="16" customHeight="true">
+      <c r="B26" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26">
+        <v>20</v>
+      </c>
+      <c r="K26" s="26">
+        <v>2</v>
+      </c>
+      <c r="L26" s="26">
+        <v>2</v>
+      </c>
+      <c r="M26" s="26">
+        <v>2</v>
+      </c>
+      <c r="N26" s="26">
+        <v>10</v>
+      </c>
+      <c r="O26" s="29">
+        <f>=K26*L26*M26*N26</f>
+      </c>
+      <c r="P26" s="29">
+        <f>=O26*1000/6*N26</f>
+      </c>
+      <c r="Q26" s="29">
+        <f>=O26*250</f>
+      </c>
+      <c r="R26" s="26">
+        <v>1000</v>
+      </c>
+      <c r="S26" s="29">
+        <f>=N26*J26</f>
+      </c>
+    </row>
+    <row r="27" ht="16" customHeight="true">
+      <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Q21" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R21" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S21" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" ht="16" customHeight="true">
-      <c r="B22" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47">
-        <v>20</v>
-      </c>
-      <c r="K22" s="47">
-        <v>2</v>
-      </c>
-      <c r="L22" s="47">
-        <v>2</v>
-      </c>
-      <c r="M22" s="47">
-        <v>2</v>
-      </c>
-      <c r="N22" s="47">
-        <v>10</v>
-      </c>
-      <c r="O22" s="47">
-        <f>=K22*L22*M22*N22</f>
-      </c>
-      <c r="P22" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R22" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S22" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" ht="16" customHeight="true">
-      <c r="B23" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47">
-        <v>20</v>
-      </c>
-      <c r="K23" s="47">
-        <v>2</v>
-      </c>
-      <c r="L23" s="47">
-        <v>2</v>
-      </c>
-      <c r="M23" s="47">
-        <v>2</v>
-      </c>
-      <c r="N23" s="47">
-        <v>10</v>
-      </c>
-      <c r="O23" s="47">
-        <f>=K23*L23*M23*N23</f>
-      </c>
-      <c r="P23" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q23" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R23" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S23" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" ht="16" customHeight="true">
-      <c r="B24" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47">
-        <v>20</v>
-      </c>
-      <c r="K24" s="47">
-        <v>2</v>
-      </c>
-      <c r="L24" s="47">
-        <v>2</v>
-      </c>
-      <c r="M24" s="47">
-        <v>2</v>
-      </c>
-      <c r="N24" s="47">
-        <v>10</v>
-      </c>
-      <c r="O24" s="47">
-        <f>=K24*L24*M24*N24</f>
-      </c>
-      <c r="P24" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q24" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R24" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S24" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" ht="16" customHeight="true">
-      <c r="B25" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47">
-        <v>20</v>
-      </c>
-      <c r="K25" s="47">
-        <v>2</v>
-      </c>
-      <c r="L25" s="47">
-        <v>2</v>
-      </c>
-      <c r="M25" s="47">
-        <v>2</v>
-      </c>
-      <c r="N25" s="47">
-        <v>10</v>
-      </c>
-      <c r="O25" s="47">
-        <f>=K25*L25*M25*N25</f>
-      </c>
-      <c r="P25" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q25" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R25" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S25" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" ht="16" customHeight="true">
-      <c r="B26" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47">
-        <v>20</v>
-      </c>
-      <c r="K26" s="47">
-        <v>2</v>
-      </c>
-      <c r="L26" s="47">
-        <v>2</v>
-      </c>
-      <c r="M26" s="47">
-        <v>2</v>
-      </c>
-      <c r="N26" s="47">
-        <v>10</v>
-      </c>
-      <c r="O26" s="47">
-        <f>=K26*L26*M26*N26</f>
-      </c>
-      <c r="P26" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R26" s="47">
-        <v>1000</v>
-      </c>
-      <c r="S26" s="47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" ht="16" customHeight="true">
-      <c r="B27" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="O27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R27" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>74</v>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="29">
+        <f>=SUM(N21:N26)</f>
+      </c>
+      <c r="O27" s="29">
+        <f>=SUM(O21:O26)</f>
+      </c>
+      <c r="P27" s="29">
+        <f>=IF(AND(SUM(Q21:Q26)&gt;=0,SUM(Q21:Q26)&lt;=0.5),0.5,ROUND(SUM(P21:P26),0))</f>
+      </c>
+      <c r="Q27" s="29">
+        <f>=ROUND(SUM(Q21:Q26),0)</f>
+      </c>
+      <c r="R27" s="29">
+        <f>=SUM(R21:R26)</f>
+      </c>
+      <c r="S27" s="29">
+        <f>=SUM(S21:S26)</f>
       </c>
     </row>
     <row r="28"/>
@@ -4269,26 +4242,26 @@
       <c r="S31" s="19"/>
     </row>
     <row r="32" ht="56" customHeight="true">
-      <c r="B32" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
+      <c r="B32" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="62">
